--- a/Excel-XLSX/UN-BOL.xlsx
+++ b/Excel-XLSX/UN-BOL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="462">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>slMS78</t>
+    <t>D4UaoG</t>
   </si>
   <si>
     <t>1972</t>
@@ -1338,12 +1338,18 @@
     <t>264</t>
   </si>
   <si>
+    <t>2184</t>
+  </si>
+  <si>
     <t>265</t>
   </si>
   <si>
     <t>266</t>
   </si>
   <si>
+    <t>508</t>
+  </si>
+  <si>
     <t>267</t>
   </si>
   <si>
@@ -1353,6 +1359,9 @@
     <t>269</t>
   </si>
   <si>
+    <t>271</t>
+  </si>
+  <si>
     <t>Paraguay</t>
   </si>
   <si>
@@ -1362,34 +1371,37 @@
     <t>PRY</t>
   </si>
   <si>
-    <t>271</t>
-  </si>
-  <si>
     <t>272</t>
   </si>
   <si>
     <t>273</t>
   </si>
   <si>
-    <t>1211</t>
-  </si>
-  <si>
-    <t>15569</t>
-  </si>
-  <si>
     <t>274</t>
   </si>
   <si>
     <t>275</t>
   </si>
   <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>11079</t>
+  </si>
+  <si>
     <t>276</t>
   </si>
   <si>
-    <t>4926</t>
-  </si>
-  <si>
-    <t>17762</t>
+    <t>277</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>10324</t>
+  </si>
+  <si>
+    <t>18475</t>
   </si>
 </sst>
 </file>
@@ -1774,7 +1786,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V277"/>
+  <dimension ref="A1:V279"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -19574,7 +19586,7 @@
         <v>68</v>
       </c>
       <c r="O262" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="P262" s="2" t="s">
         <v>33</v>
@@ -19615,16 +19627,16 @@
         <v>437</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>126</v>
+        <v>416</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>127</v>
+        <v>417</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>127</v>
+        <v>417</v>
       </c>
       <c r="J263" s="2" t="s">
         <v>29</v>
@@ -19639,10 +19651,10 @@
         <v>31</v>
       </c>
       <c r="N263" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="O263" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P263" s="2" t="s">
         <v>33</v>
@@ -19683,16 +19695,16 @@
         <v>437</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="J264" s="2" t="s">
         <v>29</v>
@@ -19707,10 +19719,10 @@
         <v>31</v>
       </c>
       <c r="N264" s="2" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="O264" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="P264" s="2" t="s">
         <v>33</v>
@@ -19751,16 +19763,16 @@
         <v>437</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="J265" s="2" t="s">
         <v>29</v>
@@ -19775,7 +19787,7 @@
         <v>31</v>
       </c>
       <c r="N265" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="O265" s="2" t="s">
         <v>33</v>
@@ -19793,7 +19805,7 @@
         <v>33</v>
       </c>
       <c r="T265" s="2" t="s">
-        <v>33</v>
+        <v>440</v>
       </c>
       <c r="U265" s="1" t="s">
         <v>34</v>
@@ -19813,22 +19825,22 @@
         <v>22</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>437</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>313</v>
+        <v>110</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>314</v>
+        <v>111</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>315</v>
+        <v>111</v>
       </c>
       <c r="J266" s="2" t="s">
         <v>29</v>
@@ -19843,7 +19855,7 @@
         <v>31</v>
       </c>
       <c r="N266" s="2" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="O266" s="2" t="s">
         <v>33</v>
@@ -19881,22 +19893,22 @@
         <v>22</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>437</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="J267" s="2" t="s">
         <v>29</v>
@@ -19911,10 +19923,10 @@
         <v>31</v>
       </c>
       <c r="N267" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="O267" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="P267" s="2" t="s">
         <v>33</v>
@@ -19929,7 +19941,7 @@
         <v>33</v>
       </c>
       <c r="T267" s="2" t="s">
-        <v>33</v>
+        <v>443</v>
       </c>
       <c r="U267" s="1" t="s">
         <v>34</v>
@@ -19949,22 +19961,22 @@
         <v>22</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>437</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="J268" s="2" t="s">
         <v>29</v>
@@ -20017,22 +20029,22 @@
         <v>22</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>437</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>292</v>
+        <v>156</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>293</v>
+        <v>157</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>294</v>
+        <v>158</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>294</v>
+        <v>158</v>
       </c>
       <c r="J269" s="2" t="s">
         <v>29</v>
@@ -20047,7 +20059,7 @@
         <v>31</v>
       </c>
       <c r="N269" s="2" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="O269" s="2" t="s">
         <v>33</v>
@@ -20085,22 +20097,22 @@
         <v>22</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>437</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>445</v>
+        <v>289</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>446</v>
+        <v>290</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>447</v>
+        <v>291</v>
       </c>
       <c r="J270" s="2" t="s">
         <v>29</v>
@@ -20115,10 +20127,10 @@
         <v>31</v>
       </c>
       <c r="N270" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="O270" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="P270" s="2" t="s">
         <v>33</v>
@@ -20159,16 +20171,16 @@
         <v>437</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>85</v>
+        <v>292</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>86</v>
+        <v>293</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>87</v>
+        <v>294</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>87</v>
+        <v>294</v>
       </c>
       <c r="J271" s="2" t="s">
         <v>29</v>
@@ -20183,10 +20195,10 @@
         <v>31</v>
       </c>
       <c r="N271" s="2" t="s">
-        <v>427</v>
+        <v>42</v>
       </c>
       <c r="O271" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="P271" s="2" t="s">
         <v>33</v>
@@ -20221,22 +20233,22 @@
         <v>22</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>437</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>136</v>
+        <v>302</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>137</v>
+        <v>448</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>138</v>
+        <v>450</v>
       </c>
       <c r="J272" s="2" t="s">
         <v>29</v>
@@ -20251,10 +20263,10 @@
         <v>31</v>
       </c>
       <c r="N272" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="O272" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="P272" s="2" t="s">
         <v>33</v>
@@ -20289,22 +20301,22 @@
         <v>22</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>437</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>274</v>
+        <v>85</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>275</v>
+        <v>86</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>276</v>
+        <v>87</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>276</v>
+        <v>87</v>
       </c>
       <c r="J273" s="2" t="s">
         <v>29</v>
@@ -20319,10 +20331,10 @@
         <v>31</v>
       </c>
       <c r="N273" s="2" t="s">
-        <v>93</v>
+        <v>427</v>
       </c>
       <c r="O273" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="P273" s="2" t="s">
         <v>33</v>
@@ -20357,22 +20369,22 @@
         <v>22</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>437</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="J274" s="2" t="s">
         <v>29</v>
@@ -20387,7 +20399,7 @@
         <v>31</v>
       </c>
       <c r="N274" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="O274" s="2" t="s">
         <v>33</v>
@@ -20405,13 +20417,13 @@
         <v>33</v>
       </c>
       <c r="T274" s="2" t="s">
-        <v>451</v>
+        <v>33</v>
       </c>
       <c r="U274" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V274" s="2" t="s">
-        <v>452</v>
+        <v>33</v>
       </c>
     </row>
     <row r="275">
@@ -20431,16 +20443,16 @@
         <v>437</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>73</v>
+        <v>274</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>355</v>
+        <v>275</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>356</v>
+        <v>276</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>356</v>
+        <v>276</v>
       </c>
       <c r="J275" s="2" t="s">
         <v>29</v>
@@ -20455,10 +20467,10 @@
         <v>31</v>
       </c>
       <c r="N275" s="2" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="O275" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="P275" s="2" t="s">
         <v>33</v>
@@ -20499,16 +20511,16 @@
         <v>437</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>343</v>
+        <v>25</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>358</v>
+        <v>26</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>359</v>
+        <v>27</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>360</v>
+        <v>28</v>
       </c>
       <c r="J276" s="2" t="s">
         <v>29</v>
@@ -20523,7 +20535,7 @@
         <v>31</v>
       </c>
       <c r="N276" s="2" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="O276" s="2" t="s">
         <v>33</v>
@@ -20541,13 +20553,13 @@
         <v>33</v>
       </c>
       <c r="T276" s="2" t="s">
-        <v>33</v>
+        <v>455</v>
       </c>
       <c r="U276" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V276" s="2" t="s">
-        <v>33</v>
+        <v>456</v>
       </c>
     </row>
     <row r="277">
@@ -20561,60 +20573,196 @@
         <v>22</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>437</v>
       </c>
       <c r="F277" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J277" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K277" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L277" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M277" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N277" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O277" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P277" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q277" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R277" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S277" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T277" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U277" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V277" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J278" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K278" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L278" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M278" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N278" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O278" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P278" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q278" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R278" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S278" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T278" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U278" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V278" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F279" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="G277" s="1" t="s">
+      <c r="G279" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="H277" s="1" t="s">
+      <c r="H279" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="I277" s="1" t="s">
+      <c r="I279" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="J277" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K277" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L277" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M277" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N277" s="2" t="s">
+      <c r="J279" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K279" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L279" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M279" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N279" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="O277" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P277" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q277" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R277" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S277" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T277" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="U277" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="V277" s="2" t="s">
+      <c r="O279" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P279" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q279" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R279" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S279" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T279" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="U279" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="V279" s="2" t="s">
         <v>33</v>
       </c>
     </row>
